--- a/ProductBurndown .xlsx
+++ b/ProductBurndown .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYP_11_12\Ship4YouProjekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Seafile\Meine Bibliothek\Schule\5AHIF\SYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F7C69-715B-4048-B0D7-1BC2B32B98E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B7936C-CB2B-4BAB-80EB-22F62A91E3FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -503,19 +503,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1758793969849242</c:v>
+                  <c:v>14.356783919597991</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>9.7135678391959814</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>5.0703517587939713</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.42713567839196109</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -1089,16 +1089,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>78</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43885</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>A7+14</f>
         <v>43899</v>
@@ -1263,7 +1263,7 @@
         <v>8.6206896551724144E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A26" si="4">A8+14</f>
         <v>43913</v>
@@ -1303,7 +1303,7 @@
         <v>5.1020408163265307E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="4"/>
         <v>43927</v>
@@ -1343,7 +1343,7 @@
         <v>5.1020408163265307E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="4"/>
         <v>43941</v>
@@ -1383,7 +1383,7 @@
         <v>5.9322033898305086E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="4"/>
         <v>43955</v>
@@ -1423,7 +1423,7 @@
         <v>6.3291139240506333E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="4"/>
         <v>43969</v>
@@ -1463,7 +1463,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>43983</v>
@@ -1503,7 +1503,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>43997</v>
@@ -1543,7 +1543,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>44011</v>
@@ -1583,7 +1583,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>44025</v>
@@ -1623,7 +1623,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="4"/>
         <v>44039</v>
@@ -1663,7 +1663,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="4"/>
         <v>44053</v>
@@ -1703,7 +1703,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="4"/>
         <v>44067</v>
@@ -1743,7 +1743,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="4"/>
         <v>44081</v>
@@ -1783,7 +1783,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="4"/>
         <v>44095</v>
@@ -1823,7 +1823,7 @@
         <v>0.11261261261261261</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="4"/>
         <v>44109</v>
@@ -1863,7 +1863,7 @@
         <v>0.13191489361702127</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="4"/>
         <v>44123</v>
@@ -1903,7 +1903,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="4"/>
         <v>44137</v>
@@ -1943,7 +1943,7 @@
         <v>0.17216117216117216</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="4"/>
         <v>44151</v>
@@ -1983,7 +1983,7 @@
         <v>0.18556701030927836</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" ref="A27:A52" si="7">A26+14</f>
         <v>44165</v>
@@ -2023,7 +2023,7 @@
         <v>0.19281045751633988</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="7"/>
         <v>44179</v>
@@ -2063,7 +2063,7 @@
         <v>0.18497109826589594</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="7"/>
         <v>44193</v>
@@ -2103,7 +2103,7 @@
         <v>0.19125683060109289</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="7"/>
         <v>44207</v>
@@ -2143,7 +2143,7 @@
         <v>0.19414893617021275</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="7"/>
         <v>44221</v>
@@ -2183,7 +2183,7 @@
         <v>0.19587628865979381</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="7"/>
         <v>44235</v>
@@ -2191,18 +2191,16 @@
       <c r="B32" s="6">
         <v>24</v>
       </c>
-      <c r="C32" s="6">
-        <v>8</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6">
         <v>10</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="6"/>
@@ -2210,7 +2208,7 @@
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="1"/>
@@ -2218,14 +2216,14 @@
       </c>
       <c r="J32" s="7">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="7"/>
         <v>44249</v>
@@ -2233,20 +2231,24 @@
       <c r="B33" s="6">
         <v>24</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>18</v>
+      </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6">
+        <v>10</v>
+      </c>
       <c r="F33" s="7">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="1"/>
@@ -2254,14 +2256,14 @@
       </c>
       <c r="J33" s="7">
         <f t="shared" si="2"/>
-        <v>1.1758793969849242</v>
+        <v>14.356783919597991</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="7"/>
         <v>44263</v>
@@ -2271,33 +2273,35 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="6">
+        <v>10</v>
+      </c>
       <c r="F34" s="7">
         <f t="shared" si="5"/>
-        <v>1.1758793969849242</v>
+        <v>14.356783919597991</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.7135678391959814</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="7"/>
         <v>44277</v>
@@ -2307,33 +2311,35 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6">
+        <v>12</v>
+      </c>
       <c r="F35" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.7135678391959814</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.0703517587939713</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="7"/>
         <v>44291</v>
@@ -2342,34 +2348,36 @@
         <v>24</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.0703517587939713</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.42713567839196109</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f t="shared" si="7"/>
         <v>44305</v>
@@ -2382,19 +2390,19 @@
       <c r="E37" s="6"/>
       <c r="F37" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.42713567839196109</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="2"/>
@@ -2402,10 +2410,10 @@
       </c>
       <c r="K37" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="7"/>
         <v>44319</v>
@@ -2422,15 +2430,15 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="2"/>
@@ -2438,10 +2446,10 @@
       </c>
       <c r="K38" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="7"/>
         <v>44333</v>
@@ -2458,15 +2466,15 @@
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="2"/>
@@ -2474,10 +2482,10 @@
       </c>
       <c r="K39" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="7"/>
         <v>44347</v>
@@ -2494,15 +2502,15 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="2"/>
@@ -2510,10 +2518,10 @@
       </c>
       <c r="K40" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f t="shared" si="7"/>
         <v>44361</v>
@@ -2530,15 +2538,15 @@
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="2"/>
@@ -2546,10 +2554,10 @@
       </c>
       <c r="K41" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f t="shared" si="7"/>
         <v>44375</v>
@@ -2566,15 +2574,15 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="2"/>
@@ -2582,10 +2590,10 @@
       </c>
       <c r="K42" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f t="shared" si="7"/>
         <v>44389</v>
@@ -2602,15 +2610,15 @@
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="2"/>
@@ -2618,10 +2626,10 @@
       </c>
       <c r="K43" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f t="shared" si="7"/>
         <v>44403</v>
@@ -2638,15 +2646,15 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="2"/>
@@ -2654,10 +2662,10 @@
       </c>
       <c r="K44" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="7"/>
         <v>44417</v>
@@ -2674,15 +2682,15 @@
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="2"/>
@@ -2690,10 +2698,10 @@
       </c>
       <c r="K45" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f t="shared" si="7"/>
         <v>44431</v>
@@ -2710,15 +2718,15 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="2"/>
@@ -2726,10 +2734,10 @@
       </c>
       <c r="K46" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="7"/>
         <v>44445</v>
@@ -2746,15 +2754,15 @@
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="2"/>
@@ -2762,10 +2770,10 @@
       </c>
       <c r="K47" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f t="shared" si="7"/>
         <v>44459</v>
@@ -2782,15 +2790,15 @@
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="2"/>
@@ -2798,10 +2806,10 @@
       </c>
       <c r="K48" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f t="shared" si="7"/>
         <v>44473</v>
@@ -2818,15 +2826,15 @@
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="2"/>
@@ -2834,10 +2842,10 @@
       </c>
       <c r="K49" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="7"/>
         <v>44487</v>
@@ -2854,15 +2862,15 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="2"/>
@@ -2870,10 +2878,10 @@
       </c>
       <c r="K50" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <f t="shared" si="7"/>
         <v>44501</v>
@@ -2890,15 +2898,15 @@
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="2"/>
@@ -2906,10 +2914,10 @@
       </c>
       <c r="K51" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <f t="shared" si="7"/>
         <v>44515</v>
@@ -2926,15 +2934,15 @@
       </c>
       <c r="G52" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J52" s="7">
         <f t="shared" si="2"/>
@@ -2942,10 +2950,10 @@
       </c>
       <c r="K52" s="9">
         <f t="shared" si="3"/>
-        <v>0.20100502512562815</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.19346733668341709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11">
         <f>SUM(B7:B31)</f>
@@ -2954,11 +2962,11 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11">
         <f>AVERAGE(D7:D52)</f>
-        <v>3.0769230769230771</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="E53" s="11">
         <f>AVERAGE(E7:E52)</f>
-        <v>15.307692307692308</v>
+        <v>14.827586206896552</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -2983,7 +2991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2995,7 +3003,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
